--- a/Jimmy668/evidence.xlsx
+++ b/Jimmy668/evidence.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\QingLian\gon-workshop\gon-evidence\Jimmy668\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
+    <workbookView windowWidth="17280" windowHeight="16220" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>TeamName</t>
   </si>
@@ -69,42 +64,111 @@
     <t>Community</t>
   </si>
   <si>
+    <t>Jimmy668</t>
+  </si>
+  <si>
+    <t>iaa1tqz6k8s04pd7ps9cug85da2uaa695l5zqervd5</t>
+  </si>
+  <si>
+    <t>stars1tqz6k8s04pd7ps9cug85da2uaa695l5zp85qy5</t>
+  </si>
+  <si>
+    <t>juno1tqz6k8s04pd7ps9cug85da2uaa695l5zrfqxge</t>
+  </si>
+  <si>
+    <t>uptick12jqlq2ngsrczwymcq5z4r2xw6sffgzdmj4wz77</t>
+  </si>
+  <si>
+    <t>omniflix1tqz6k8s04pd7ps9cug85da2uaa695l5zg9jycm</t>
+  </si>
+  <si>
+    <t>Jimmy668#7209</t>
+  </si>
+  <si>
+    <t>uptick</t>
+  </si>
+  <si>
     <t>TxHash</t>
   </si>
   <si>
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>5169F8519AEC21CEED1225A41CEDD9219E79B2F941023178E2E0FE6649E0B725</t>
+  </si>
+  <si>
+    <t>irisdenomid</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>ACD35AD1612684990A1FDB7C8577F49704CEDDA44E1578B765F986DACD96671F</t>
+  </si>
+  <si>
+    <t>irisnftid</t>
+  </si>
+  <si>
+    <t>CDD89E9D592F6D37A87D87245B01BDBC6FF0E6D7728473AED46C0547DD7E54D0</t>
+  </si>
+  <si>
+    <t>irisnftid1</t>
+  </si>
+  <si>
+    <t>84AD680B7ADE7D6A5CD143696457AC9003FF27C33E2A90F06703A4D44402D614</t>
+  </si>
+  <si>
+    <t>irisnftid2</t>
+  </si>
+  <si>
+    <t>A20FD9D1FAA8597B1DEAA83403FE1D16F371D26FAB13834B4C60BF5B84576DF1</t>
+  </si>
+  <si>
+    <t>irisnftid3</t>
+  </si>
+  <si>
+    <t>8F65CE059BF305CAEF859A817EB8CEAC0096019B8A6684544E1794D1E8A853FE</t>
+  </si>
+  <si>
+    <t>irisnftid4</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>D26B0C1A4DC2DA66096877F3DF8009E6140DFBF16E3CAF3A1484A835D7E2A502</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>1CBD5B50C3914CCA907A8C6CD2D81BAB8243182DF88A0F300A68B95246C8827E</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>F4BE694B792F1A98A5DD672D05C5450AC8825E61503CB10766CB6E94C4410513</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/irisdenomid</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>C379A5AAFEE1B7C2F97A501D3B92DBBC4330BB27E82C7D58C4CA44C6BD15196B</t>
+  </si>
+  <si>
+    <t>ibc/3380717A03D4CDB19E06EE37A9A346A06B5EDDEFCD6DA830E00674CCB358602B</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
@@ -119,39 +183,18 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
-  <si>
-    <t>Jimmy668</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iaa1tqz6k8s04pd7ps9cug85da2uaa695l5zqervd5</t>
-  </si>
-  <si>
-    <t>stars1tqz6k8s04pd7ps9cug85da2uaa695l5zp85qy5</t>
-  </si>
-  <si>
-    <t>juno1tqz6k8s04pd7ps9cug85da2uaa695l5zrfqxge</t>
-  </si>
-  <si>
-    <t>uptick18dfa2m6jwd53tdu5e03atqtw4ysfuwytm2q08u</t>
-  </si>
-  <si>
-    <t>omniflix1tqz6k8s04pd7ps9cug85da2uaa695l5zg9jycm</t>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jimmy668#7209</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,22 +205,180 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +391,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -199,20 +586,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -285,9 +987,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -545,31 +1244,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="44.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="43.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="46.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" ht="13.95" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,588 +1292,629 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
+    <row r="2" ht="12.75" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1185,34 +1923,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1221,34 +1959,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1257,34 +1995,34 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1293,300 +2031,369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="61.6071428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Jimmy668/evidence.xlsx
+++ b/Jimmy668/evidence.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>

--- a/Jimmy668/evidence.xlsx
+++ b/Jimmy668/evidence.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\QingLian\gon-workshop\gon-evidence\Jimmy668\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29820" windowHeight="13785" tabRatio="997"/>
+    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="997"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -37,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>TeamName</t>
   </si>
@@ -303,9 +299,6 @@
     <t>DC9E08003FAE77052CE952D5FB6F6C4A24E0C8407F0B6B77AD61FB05C4C5FDD7</t>
   </si>
   <si>
-    <t>i --(1)--&gt; s --(1)--&gt; j --(1)--&gt; u --(1)--&gt; j --(1)--&gt; s --(1)--&gt; i</t>
-  </si>
-  <si>
     <t>88A1086F2C90BF27EFF67C3946E61796C8C2A9A50B20625E20C9158B6BB6E967</t>
   </si>
   <si>
@@ -328,13 +321,37 @@
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t>33C774FF6693F0A75BDA1957F71A8042BED341B1A919719BABAF6518F3524E53</t>
+  </si>
+  <si>
+    <t>3963FFB3DCD34D172F2970FBD348A2F29D1EE02F1A53C876965B88F54B31B826</t>
+  </si>
+  <si>
+    <t>D79F387C695638EEB0F349E4CE6145FD362C603A756A9521003B4CA5D3C8A8E6</t>
+  </si>
+  <si>
+    <t>9FDC8E317CC436DFD054CD3F416976CB0B2183BC4689EC2531C0DD8B5981ECAD</t>
+  </si>
+  <si>
+    <t>89B2602ED63A900FAF0789C118B7C12B793EF357BDF3F053D95ACB9DDCB6C4ED</t>
+  </si>
+  <si>
+    <t>EE2870C51A8F7EC52E8C3F47935532B5CEE9E459D225D6D825A91AEBC493F038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,12 +368,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -367,12 +390,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,7 +414,7 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -408,13 +425,158 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +595,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -457,29 +805,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -489,11 +1079,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -502,10 +1089,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -578,9 +1212,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -838,29 +1469,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="44.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="43.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="46.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" ht="13.95" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,26 +1517,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="12.75" spans="1:8">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -913,27 +1544,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection activeCell="A10" sqref="$A10:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="91.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="91.2142857142857" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -941,7 +1573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -949,43 +1581,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="10" ht="12.8" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" ht="12.8" spans="2:2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" ht="12.8" spans="2:2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" ht="12.8" spans="2:2">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD17"/>
+      <selection activeCell="A10" sqref="$A10:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="89.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.5892857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.6964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
@@ -1001,34 +1634,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="82.7109375" customWidth="1"/>
+    <col min="1" max="1" width="82.7410714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
@@ -1044,49 +1678,50 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="10" ht="12.8" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="13" ht="12.8" spans="2:2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" ht="12.8" spans="2:2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" ht="12.8" spans="2:2">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" ht="12.8" spans="2:2">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2" ht="15">
+    <row r="17" ht="12.8" spans="2:2">
       <c r="B17" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="61.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="61.1607142857143" customWidth="1"/>
+    <col min="2" max="2" width="19.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
@@ -1102,34 +1737,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
+    <row r="15" ht="12.8" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="78" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="77.9732142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -1145,7 +1781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1153,7 +1789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -1161,7 +1797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1169,33 +1805,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
+    <row r="12" ht="12.8" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="1" max="1" width="79.0089285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1203,7 +1840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1211,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1219,7 +1856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -1227,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5">
+    <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -1235,38 +1872,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="2:2">
       <c r="B6" s="13"/>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="8" t="s">
+    <row r="11" ht="13" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="84.5703125" customWidth="1"/>
+    <col min="1" max="1" width="84.5178571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1274,67 +1912,68 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.75">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="8" t="s">
+    <row r="11" ht="13" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="82.85546875" customWidth="1"/>
+    <col min="1" max="1" width="82.8839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,23 +1981,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1366,41 +2005,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
+    <row r="8" ht="12.8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+    <col min="1" max="1" width="93.5892857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1408,15 +2048,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
@@ -1424,15 +2064,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1440,33 +2080,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
+    <row r="12" ht="12.8" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="86.42578125" customWidth="1"/>
+    <col min="1" max="1" width="86.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1474,65 +2115,66 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.75">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.75">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.75">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1549,26 +2191,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="83.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,86 +2219,85 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.75">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
+    <row r="8" ht="14.8" spans="2:2">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="86.28515625" customWidth="1"/>
+    <col min="1" max="1" width="86.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,96 +2305,98 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.75">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.75">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.75">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.75">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="13.5">
-      <c r="A15" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
+    <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1761,34 +2405,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1797,34 +2441,43 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="104.464285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1833,34 +2486,88 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="78.4196428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="96.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1869,21 +2576,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="61.6071428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" ht="13.2" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +2602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +2613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" ht="13.2" spans="1:3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +2624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" ht="13.2" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1927,7 +2635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" ht="13.2" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1938,7 +2646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
+    <row r="6" ht="13.2" spans="1:3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1950,27 +2658,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +2693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1998,31 +2707,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" ht="13.2" spans="2:2">
       <c r="B3" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2046,32 +2756,33 @@
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" ht="13.6" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2095,34 +2806,35 @@
       <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2589285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2136,7 +2848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" ht="13.6" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -2146,32 +2858,33 @@
       <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="A3" sqref="$A3:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="91.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="91.8125" customWidth="1"/>
+    <col min="2" max="2" width="20.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
@@ -2187,30 +2900,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" ht="12.8" spans="1:1">
       <c r="A10" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="A5" sqref="$A5:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="1" max="1" width="62.9464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2218,7 +2932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
@@ -2226,15 +2940,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
+    <row r="5" ht="12.8" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>